--- a/jpcore-r4/feature/swg5-力価区分関連修正/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
+++ b/jpcore-r4/feature/swg5-力価区分関連修正/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.22</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationIngredientStrengthStrengthType_CS</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>id: urn:oid:1.2.392.100495.20.2.22</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:32:50+00:00</t>
+    <t>2022-09-02T02:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,15 +346,15 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -386,22 +392,22 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -416,40 +422,48 @@
       <c r="A17" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>33</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>36</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -467,39 +481,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>
